--- a/Linearisierungen/Kühlturm Kosten.xlsx
+++ b/Linearisierungen/Kühlturm Kosten.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_EEEF2E0CE9DA2EEE46FA91632004AE5FF23B4950" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{96BA0FB5-94B7-479E-946F-E7784EBA8D33}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -29,9 +28,9 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Rückkühlung: offenes RKW Bundesministerium</t>
   </si>
@@ -77,13 +76,22 @@
   </si>
   <si>
     <t>Summer Fehlerquadrate</t>
+  </si>
+  <si>
+    <t>offener Kühlturm: Preisatlas</t>
+  </si>
+  <si>
+    <t>kW Kühlleistung</t>
+  </si>
+  <si>
+    <t>bis hier lagen Daten vor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,13 +116,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -133,44 +151,25 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Fit</c:v>
+            <c:v>BMVBS Publikation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050">
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$7:$A$20</c:f>
@@ -226,104 +225,382 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>10.589227857327796</c:v>
+                  <c:v>10.588160770584228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.008238362833865</c:v>
+                  <c:v>17.007184689272279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.618283166639682</c:v>
+                  <c:v>26.617672776424619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.085042810286041</c:v>
+                  <c:v>44.085922265568378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1892047911890078</c:v>
+                  <c:v>8.188245260296565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.821511083625449</c:v>
+                  <c:v>12.820410402148918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.926055330968921</c:v>
+                  <c:v>21.925182270201454</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.556673018874584</c:v>
+                  <c:v>35.556741006010419</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.320943872004051</c:v>
+                  <c:v>52.322724740651076</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.331034409447504</c:v>
+                  <c:v>60.333783208617604</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90.800974515932367</c:v>
+                  <c:v>90.808030109683187</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>126.59160010023389</c:v>
+                  <c:v>126.60462726587996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>160.74044514893771</c:v>
+                  <c:v>160.75982753720942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-AC77-460E-AFD5-94335F1D14A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="127042688"/>
-        <c:axId val="127040896"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Preisatlas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$29:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$29:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.3171298715317321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4224380067305411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.908648457844826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.416795414669583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.933754508079883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.455482920411718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.980200167216069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.035218182898042</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.157440811492322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132.42307757243574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>197.77129494787698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263.12755278932104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$A$7:$A$20,Tabelle1!$A$29:$A$40)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$D$7:$D$20,Tabelle1!$B$29:$B$40)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10.588160770584228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.007184689272279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.617672776424619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.085922265568378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.188245260296565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.820410402148918</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.925182270201454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.556741006010419</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.322724740651076</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.333783208617604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.808030109683187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126.60462726587996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160.75982753720942</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.3171298715317321</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>8.4224380067305411</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>14.908648457844826</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>21.416795414669583</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>27.933754508079883</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>34.455482920411718</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>40.980200167216069</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>54.035218182898042</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>80.157440811492322</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>132.42307757243574</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>197.77129494787698</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>263.12755278932104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="53839744"/>
+        <c:axId val="53854208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127042688"/>
+        <c:axId val="53839744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127040896"/>
+        <c:crossAx val="53854208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127040896"/>
+        <c:axId val="53854208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127042688"/>
+        <c:crossAx val="53839744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -349,7 +626,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,31 +902,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -657,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -677,10 +954,10 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <v>5.5425035581859509E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.5403307545204498E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>200</v>
       </c>
@@ -693,20 +970,20 @@
       </c>
       <c r="D7">
         <f>$I$6*A7^$I$7+$I$8</f>
-        <v>10.589227857327796</v>
+        <v>10.588160770584228</v>
       </c>
       <c r="E7">
         <f>(C7-D7)^2</f>
-        <v>4.4424896126632391E-2</v>
+        <v>4.4875859119468474E-2</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
       </c>
       <c r="I7">
-        <v>0.86199692840645803</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.86205343355723707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>500</v>
       </c>
@@ -719,20 +996,20 @@
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D9" si="0">$I$6*A8^$I$7+$I$8</f>
-        <v>17.008238362833865</v>
+        <v>17.007184689272279</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E10" si="1">(C8-D8)^2</f>
-        <v>0.25830623345604709</v>
+        <v>0.25723630903221811</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
       </c>
       <c r="I8">
-        <v>5.2535847940364429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.2530124068344382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>1000</v>
       </c>
@@ -745,21 +1022,21 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>26.618283166639682</v>
+        <v>26.617672776424619</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.14570774087062915</v>
+        <v>0.146174105886859</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9">
         <f>SUM(E7:E10)</f>
-        <v>0.45567115003465608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.45566890975894847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>2000</v>
       </c>
@@ -772,95 +1049,219 @@
       </c>
       <c r="D10">
         <f>$I$6*A10^$I$7+$I$8</f>
-        <v>44.085042810286041</v>
+        <v>44.085922265568378</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>7.2322795813474844E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.3826357204028773E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D20" si="2">$I$6*A12^$I$7+$I$8</f>
-        <v>8.1892047911890078</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.188245260296565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>300</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>12.821511083625449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12.820410402148918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>750</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>21.926055330968921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21.925182270201454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>1500</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>35.556673018874584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35.556741006010419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>2500</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>52.320943872004051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52.322724740651076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>3000</v>
       </c>
       <c r="D17">
         <f>$I$6*A17^$I$7+$I$8</f>
-        <v>60.331034409447504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60.333783208617604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>5000</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>90.800974515932367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90.808030109683187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>7500</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>126.59160010023389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126.60462726587996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>10000</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>160.74044514893771</v>
+        <f>$I$6*A20^$I$7+$I$8</f>
+        <v>160.75982753720942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1">
+        <f>(2348.2*A29^(-1.0398)+26.15)*A29/1000</f>
+        <v>3.3171298715317321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>250</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:B40" si="3">(2348.2*A30^(-1.0398)+26.15)*A30/1000</f>
+        <v>8.4224380067305411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>500</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="3"/>
+        <v>14.908648457844826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>750</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="3"/>
+        <v>21.416795414669583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1000</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="3"/>
+        <v>27.933754508079883</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1250</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="3"/>
+        <v>34.455482920411718</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1500</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="3"/>
+        <v>40.980200167216069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2000</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="3"/>
+        <v>54.035218182898042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>3000</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="3"/>
+        <v>80.157440811492322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>5000</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="3"/>
+        <v>132.42307757243574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>7500</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="3"/>
+        <v>197.77129494787698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>10000</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="3"/>
+        <v>263.12755278932104</v>
       </c>
     </row>
   </sheetData>
